--- a/biology/Histoire de la zoologie et de la botanique/Peter_J._Schwendinger/Peter_J._Schwendinger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Peter_J._Schwendinger/Peter_J._Schwendinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter J. Schwendinger, né le 27 avril 1959 à Dornbirn, est un arachnologiste autrichien.
 Diplômé de l'université d'Innsbruck, il a étudié auprès de Konrad Thaler (en). Il est conservateur au muséum d'histoire naturelle de Genève.
@@ -512,16 +524,18 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(Liste incomplète)
 Ageleradix schwendingeri Zhang, Li &amp; Xu, 2008
 Asiolasma schwendingeri Martens, 2019
-Baeocera schwendingeri Löbl, 1990[1], désormais Baeoceroxidium schwendingeri (Löbl, 1990)
+Baeocera schwendingeri Löbl, 1990, désormais Baeoceroxidium schwendingeri (Löbl, 1990)
 Belisana schwendingeri Huber, 2005
-Brignolia schwendingeri Platnick, Dupérré, Ott &amp; Kranz-Baltensperger, 2011[2]
-Butheoloides schwendingeri Lourenço, 2002[3]
-Camptoscaphiella schwendingeri Baehr in Baehr &amp; Ubick, 2010[4]
+Brignolia schwendingeri Platnick, Dupérré, Ott &amp; Kranz-Baltensperger, 2011
+Butheoloides schwendingeri Lourenço, 2002
+Camptoscaphiella schwendingeri Baehr in Baehr &amp; Ubick, 2010
 Carniella schwendingeri Knoflach, 1996
 Cheumatopsyche schwendingeri  Malicky &amp; Chantaramongkol in Malicky, 1997
 Chimarra schwendingeri Chantaramongkol &amp; Malicky, 1989
@@ -529,7 +543,7 @@
 Draconarius schwendingeri Dankittipakul, Sonthichai &amp; Wang, 2006
 Eupoa schwendingeri Logunov &amp; Marusik, 2014
 Euryeidon schwendingeri Dankittipakul &amp; Jocqué, 2004
-Heteropoda schwendingeri Jäger, 2005[5]
+Heteropoda schwendingeri Jäger, 2005
 Horniella schwendingeri Yin &amp; Li, 2014
 Khorata schwendingeri Huber, 2005
 Laena schwendingeri Schawaller, 1998
@@ -537,11 +551,11 @@
 Liphistius schwendingeri Ono, 1988
 Ljunghia schwendingeri Halliday &amp; Juvara-Bals, 2016
 Microdytes schwendingeri Wewalka, 1997
-Morana schwendingeri Kurbatov, Cuccodoro &amp; Löbl, 2007[6]
+Morana schwendingeri Kurbatov, Cuccodoro &amp; Löbl, 2007
 Paraploderus schwendingeri Makranczy, 2016
-Pelicinus schwendingeri Platnick, Dupérré, Ott, Baehr &amp; Kranz-Baltensperger, 2012[7]
+Pelicinus schwendingeri Platnick, Dupérré, Ott, Baehr &amp; Kranz-Baltensperger, 2012
 Pholcus schwendingeri Huber, 2011
-Prethopalpus schwendingeri Baehr in Baehr, Harvey, Burger &amp; Thoma, 2012[8]
+Prethopalpus schwendingeri Baehr in Baehr, Harvey, Burger &amp; Thoma, 2012
 Psechrus schwendingeri Bayer, 2012
 Pseudopoda schwendingeri Jäger, 2001
 Pycnoscelus schwendingeri Anisyutkin, 2018
@@ -577,7 +591,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Genres :
 Angka Raven &amp; Schwendinger, 1995
@@ -596,8 +612,8 @@
 Biantoncopus fuscus Martens &amp; Schwendinger, 1998
 Caenoncopus affinis Martens &amp; Schwendinger, 1998
 Caenoncopus tenuis Martens &amp; Schwendinger, 1998
-Conothele martensi Decae, Schwendinger &amp; Hongpadharakiree, 2021[9]
-Conothele isan Decae, Schwendinger &amp; Hongpadharakiree, 2021[9]
+Conothele martensi Decae, Schwendinger &amp; Hongpadharakiree, 2021
+Conothele isan Decae, Schwendinger &amp; Hongpadharakiree, 2021
 Cyclocosmia lannaensis Schwendinger, 2005
 Cyclocosmia siamensis Schwendinger, 2005
 Dendrolasma angka Schwendinger &amp; Gruber, 1992
@@ -642,8 +658,8 @@
 Idiops pylorus Schwendinger, 1991
 Lamania bokor Schwendinger &amp; Košulic, 2015
 Lamania gracilis Schwendinger, 1989
-Latouchia incerta Decae, Schwendinger &amp; Hongpadharakiree, 2021[9]
-Latouchia maculosa Decae, Schwendinger &amp; Hongpadharakiree, 2021[9]
+Latouchia incerta Decae, Schwendinger &amp; Hongpadharakiree, 2021
+Latouchia maculosa Decae, Schwendinger &amp; Hongpadharakiree, 2021
 Leptopsalis foveolata Clouse &amp; Schwendinger, 2012
 Leptothele bencha Raven &amp; Schwendinger, 1995
 Leptothele chang Schwendinger, 2020
